--- a/csv/model/sector_agriculture/formula_sector_agriculture_BC.xlsx
+++ b/csv/model/sector_agriculture/formula_sector_agriculture_BC.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\sector_agriculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{905D8CB4-64F4-4D49-9D20-92344F3BE589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4747DD79-1548-4B2B-ACE4-1DE4BCC9709C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6E0AFA2C-14C7-4977-A5FC-C3B1CB4EA9BB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FFB29A44-BE23-4BBA-8372-5B7C354EED15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -413,6 +414,82 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="BC"/>
+      <sheetName val="AB"/>
+      <sheetName val="SK"/>
+      <sheetName val="MB"/>
+      <sheetName val="ON"/>
+      <sheetName val="QC"/>
+      <sheetName val="NB"/>
+      <sheetName val="NS"/>
+      <sheetName val="PE"/>
+      <sheetName val="NL"/>
+      <sheetName val="YT"/>
+      <sheetName val="NT"/>
+      <sheetName val="NU"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="99">
+          <cell r="E99">
+            <v>2900000</v>
+          </cell>
+          <cell r="F99">
+            <v>2900000</v>
+          </cell>
+          <cell r="G99">
+            <v>2500000</v>
+          </cell>
+          <cell r="H99">
+            <v>2800000</v>
+          </cell>
+          <cell r="I99">
+            <v>3100000</v>
+          </cell>
+          <cell r="J99">
+            <v>3100000</v>
+          </cell>
+          <cell r="K99">
+            <v>3100000</v>
+          </cell>
+          <cell r="L99">
+            <v>3100000</v>
+          </cell>
+          <cell r="M99">
+            <v>3100000</v>
+          </cell>
+          <cell r="N99">
+            <v>3100000</v>
+          </cell>
+          <cell r="O99">
+            <v>3100000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
       <sheetName val="Control"/>
       <sheetName val="Macro"/>
       <sheetName val="Prices"/>
@@ -29711,7 +29788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D049B15-E314-4CB9-B5EA-E2619A437EA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCBBB41-5420-45A9-8939-C70EBC9CA582}">
   <dimension ref="A1:X178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -29822,47 +29899,47 @@
         <v>19</v>
       </c>
       <c r="M3">
-        <f>1000000*2.9</f>
+        <f>[1]BC!E$99</f>
         <v>2900000</v>
       </c>
       <c r="N3">
-        <f>1000000*2.9</f>
+        <f>[1]BC!F$99</f>
         <v>2900000</v>
       </c>
       <c r="O3">
-        <f>1000000*2.5</f>
+        <f>[1]BC!G$99</f>
         <v>2500000</v>
       </c>
       <c r="P3">
-        <f>1000000*2.8</f>
+        <f>[1]BC!H$99</f>
         <v>2800000</v>
       </c>
       <c r="Q3">
-        <f>1000000*3.1</f>
+        <f>[1]BC!I$99</f>
         <v>3100000</v>
       </c>
       <c r="R3">
-        <f>Q3</f>
+        <f>[1]BC!J$99</f>
         <v>3100000</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:W3" si="0">R3</f>
+        <f>[1]BC!K$99</f>
         <v>3100000</v>
       </c>
       <c r="T3">
-        <f t="shared" si="0"/>
+        <f>[1]BC!L$99</f>
         <v>3100000</v>
       </c>
       <c r="U3">
-        <f t="shared" si="0"/>
+        <f>[1]BC!M$99</f>
         <v>3100000</v>
       </c>
       <c r="V3">
-        <f t="shared" si="0"/>
+        <f>[1]BC!N$99</f>
         <v>3100000</v>
       </c>
       <c r="W3">
-        <f t="shared" si="0"/>
+        <f>[1]BC!O$99</f>
         <v>3100000</v>
       </c>
     </row>
@@ -29923,47 +30000,47 @@
         <v>24</v>
       </c>
       <c r="M6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1.1853107044796758</v>
       </c>
       <c r="N6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1.4611319068628172</v>
       </c>
       <c r="O6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1.9141508982703022</v>
       </c>
       <c r="P6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>2.0833763453383329</v>
       </c>
       <c r="Q6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>2.1831574043583046</v>
       </c>
       <c r="R6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>2.842322611873024</v>
       </c>
       <c r="S6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>2.7308844214428594</v>
       </c>
       <c r="T6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>2.6324168068295823</v>
       </c>
       <c r="U6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>2.5300679249111981</v>
       </c>
       <c r="V6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>2.5295533399507422</v>
       </c>
       <c r="W6">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C6&amp;$D6&amp;$J6,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>2.528656305562841</v>
       </c>
     </row>
@@ -29990,47 +30067,47 @@
         <v>24</v>
       </c>
       <c r="M7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W7">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C7&amp;$D7&amp;$J7,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30057,47 +30134,47 @@
         <v>24</v>
       </c>
       <c r="M8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W8">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C8&amp;$D8&amp;$J8,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30124,47 +30201,47 @@
         <v>24</v>
       </c>
       <c r="M9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W9">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C9&amp;$D9&amp;$J9,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30191,47 +30268,47 @@
         <v>24</v>
       </c>
       <c r="M10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W10">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C10&amp;$D10&amp;$J10,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30258,47 +30335,47 @@
         <v>24</v>
       </c>
       <c r="M11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>0.52061381217929492</v>
       </c>
       <c r="N11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>0.63580249051724136</v>
       </c>
       <c r="O11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>0.86522676579302882</v>
       </c>
       <c r="P11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>0.9234022037757782</v>
       </c>
       <c r="Q11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1.0936913813841711</v>
       </c>
       <c r="R11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1.1951592066973253</v>
       </c>
       <c r="S11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1.2838446059247692</v>
       </c>
       <c r="T11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1.3565474785198062</v>
       </c>
       <c r="U11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1.4126996139261774</v>
       </c>
       <c r="V11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1.4229534547398943</v>
       </c>
       <c r="W11">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C11&amp;$D11&amp;$J11,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1.4405383838732864</v>
       </c>
     </row>
@@ -30384,47 +30461,47 @@
         <v>24</v>
       </c>
       <c r="M13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W13">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C13&amp;$D13&amp;$J13,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30451,47 +30528,47 @@
         <v>31</v>
       </c>
       <c r="M14" cm="1">
-        <f t="array" ref="M14">INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(M$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!K$29:K$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f t="array" ref="M14">INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(M$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!K$29:K$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.0160053775773112</v>
       </c>
       <c r="N14" cm="1">
-        <f t="array" ref="N14">INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(N$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!L$29:L$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f t="array" ref="N14">INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(N$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!L$29:L$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.0160053775773112</v>
       </c>
       <c r="O14">
-        <f>INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(O$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!M$29:M$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(O$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!M$29:M$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.1293796930390316</v>
       </c>
       <c r="P14">
-        <f>INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(P$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!N$29:N$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(P$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!N$29:N$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.1700038420686989</v>
       </c>
       <c r="Q14">
-        <f>INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(Q$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!O$29:O$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(Q$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!O$29:O$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.0600747731463751</v>
       </c>
       <c r="R14">
-        <f>INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(R$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!P$29:P$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(R$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!P$29:P$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.1685702999588341</v>
       </c>
       <c r="S14">
-        <f>INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(S$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!Q$29:Q$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(S$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!Q$29:Q$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.2331289910382899</v>
       </c>
       <c r="T14">
-        <f>INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(T$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!R$29:R$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(T$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!R$29:R$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.1813801723069417</v>
       </c>
       <c r="U14">
-        <f>INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(U$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!S$29:S$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(U$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!S$29:S$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.1078112969818017</v>
       </c>
       <c r="V14">
-        <f>INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(V$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!T$29:T$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(V$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!T$29:T$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.0222262033989544</v>
       </c>
       <c r="W14">
-        <f>INDEX([1]!CER_prices,MATCH($C14&amp;INDEX([1]!sector_CER,MATCH($D14,[1]!sector_CIMS,0))&amp;$J14,[1]!CER_prices_index,0),MATCH(W$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!U$29:U$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C14&amp;INDEX([2]!sector_CER,MATCH($D14,[2]!sector_CIMS,0))&amp;$J14,[2]!CER_prices_index,0),MATCH(W$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!U$29:U$210,MATCH("CAN"&amp;"Industrial"&amp;$J14,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>0.96565680121894615</v>
       </c>
     </row>
@@ -30518,47 +30595,47 @@
         <v>24</v>
       </c>
       <c r="M15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W15">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C15&amp;$D15&amp;$J15,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30585,47 +30662,47 @@
         <v>24</v>
       </c>
       <c r="M16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>0.99999999982762755</v>
       </c>
       <c r="N16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>0.99999999991567645</v>
       </c>
       <c r="O16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>0.99999999992787747</v>
       </c>
       <c r="P16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1.0000000000959584</v>
       </c>
       <c r="Q16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>0.99999999992841759</v>
       </c>
       <c r="R16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>0.99999999992841759</v>
       </c>
       <c r="S16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>0.99999999992841759</v>
       </c>
       <c r="T16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>0.99999999992841759</v>
       </c>
       <c r="U16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>0.99999999992841759</v>
       </c>
       <c r="V16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>0.99999999992841759</v>
       </c>
       <c r="W16">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C16&amp;$D16&amp;$J16,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>0.99999999992841759</v>
       </c>
     </row>
@@ -30652,47 +30729,47 @@
         <v>24</v>
       </c>
       <c r="M17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W17">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C17&amp;$D17&amp;$J17,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30719,47 +30796,47 @@
         <v>24</v>
       </c>
       <c r="M18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W18">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C18&amp;$D18&amp;$J18,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30786,47 +30863,47 @@
         <v>31</v>
       </c>
       <c r="M19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(M$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!K$29:K$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(M$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!K$29:K$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.0557392141561774</v>
       </c>
       <c r="N19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(N$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!L$29:L$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(N$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!L$29:L$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.0557392141561774</v>
       </c>
       <c r="O19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(O$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!M$29:M$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(O$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!M$29:M$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.1071560569909378</v>
       </c>
       <c r="P19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(P$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!N$29:N$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(P$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!N$29:N$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>1.3264534365956315</v>
       </c>
       <c r="Q19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(Q$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!O$29:O$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(Q$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!O$29:O$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>0.80925887171052624</v>
       </c>
       <c r="R19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(R$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!P$29:P$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(R$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!P$29:P$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>0.90270842821186092</v>
       </c>
       <c r="S19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(S$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!Q$29:Q$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(S$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!Q$29:Q$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>0.85690314279767632</v>
       </c>
       <c r="T19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(T$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!R$29:R$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(T$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!R$29:R$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>0.83912140951455305</v>
       </c>
       <c r="U19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(U$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!S$29:S$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(U$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!S$29:S$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>0.84041216516461226</v>
       </c>
       <c r="V19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(V$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!T$29:T$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(V$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!T$29:T$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>0.84280732149355919</v>
       </c>
       <c r="W19">
-        <f>INDEX([1]!CER_prices,MATCH($C19&amp;INDEX([1]!sector_CER,MATCH($D19,[1]!sector_CIMS,0))&amp;$J19,[1]!CER_prices_index,0),MATCH(W$2,[1]!CER_year,0))/ROUND(INDEX([1]Prices!U$29:U$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[1]Prices!$CJ$29:$CJ$210,0)),2)</f>
+        <f>INDEX([2]!CER_prices,MATCH($C19&amp;INDEX([2]!sector_CER,MATCH($D19,[2]!sector_CIMS,0))&amp;$J19,[2]!CER_prices_index,0),MATCH(W$2,[2]!CER_year,0))/ROUND(INDEX([2]Prices!U$29:U$210,MATCH("CAN"&amp;"Industrial"&amp;$J19,[2]Prices!$CJ$29:$CJ$210,0)),2)</f>
         <v>0.84547528189865873</v>
       </c>
     </row>
@@ -30853,47 +30930,47 @@
         <v>24</v>
       </c>
       <c r="M20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W20">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C20&amp;$D20&amp;$J20,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30920,47 +30997,47 @@
         <v>24</v>
       </c>
       <c r="M21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W21">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C21&amp;$D21&amp;$J21,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -30987,47 +31064,47 @@
         <v>24</v>
       </c>
       <c r="M22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W22">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C22&amp;$D22&amp;$J22,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -31054,47 +31131,47 @@
         <v>24</v>
       </c>
       <c r="M23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W23">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C23&amp;$D23&amp;$J23,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -31121,47 +31198,47 @@
         <v>24</v>
       </c>
       <c r="M24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W24">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C24&amp;$D24&amp;$J24,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -31188,47 +31265,47 @@
         <v>24</v>
       </c>
       <c r="M25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(M$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="N25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(N$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="O25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(O$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="P25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(P$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="Q25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(Q$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="R25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(R$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="S25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(S$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="T25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(T$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="U25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(U$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="V25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(V$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
       <c r="W25">
-        <f>IFERROR(INDEX([1]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[1]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
+        <f>IFERROR(INDEX([2]!FuelMult_JCIMS,MATCH($C25&amp;$D25&amp;$J25,[2]!FuelMult_JCIMS_Index,0),MATCH(W$2,$M$2:$W$2,0)),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -31262,39 +31339,39 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <f t="shared" ref="O26:W26" si="1">N26</f>
+        <f t="shared" ref="O26:W26" si="0">N26</f>
         <v>1</v>
       </c>
       <c r="P26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="S26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="T26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="V26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="W26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -31374,43 +31451,43 @@
         <v>0.89655172413793105</v>
       </c>
       <c r="N29">
-        <f t="shared" ref="N29:Q29" si="2">1-SUM(N30:N31)</f>
+        <f t="shared" ref="N29:Q29" si="1">1-SUM(N30:N31)</f>
         <v>0.881610144662069</v>
       </c>
       <c r="O29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.86343142862632105</v>
       </c>
       <c r="P29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.8413142409995229</v>
       </c>
       <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>0.81440530048045368</v>
+      </c>
+      <c r="R29">
+        <f t="shared" ref="R29:W29" si="2">Q29</f>
+        <v>0.81440530048045368</v>
+      </c>
+      <c r="S29">
         <f t="shared" si="2"/>
         <v>0.81440530048045368</v>
       </c>
-      <c r="R29">
-        <f t="shared" ref="R29:W29" si="3">Q29</f>
+      <c r="T29">
+        <f t="shared" si="2"/>
         <v>0.81440530048045368</v>
       </c>
-      <c r="S29">
-        <f t="shared" si="3"/>
+      <c r="U29">
+        <f t="shared" si="2"/>
         <v>0.81440530048045368</v>
       </c>
-      <c r="T29">
-        <f t="shared" si="3"/>
+      <c r="V29">
+        <f t="shared" si="2"/>
         <v>0.81440530048045368</v>
       </c>
-      <c r="U29">
-        <f t="shared" si="3"/>
-        <v>0.81440530048045368</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="3"/>
-        <v>0.81440530048045368</v>
-      </c>
       <c r="W29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.81440530048045368</v>
       </c>
     </row>
@@ -31448,39 +31525,39 @@
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="O30">
-        <f t="shared" ref="O30:W31" si="4">N30</f>
+        <f t="shared" ref="O30:W31" si="3">N30</f>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="P30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="R30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="S30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="T30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="U30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="V30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="W30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
@@ -31518,39 +31595,39 @@
         <v>8.3907096717241406E-2</v>
       </c>
       <c r="O31">
-        <f t="shared" ref="O31:Q31" si="5">N31*(1+0.04)^5</f>
+        <f t="shared" ref="O31:Q31" si="4">N31*(1+0.04)^5</f>
         <v>0.10208581275298929</v>
       </c>
       <c r="P31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.12420300037978739</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="5"/>
-        <v>0.15111194089885668</v>
-      </c>
-      <c r="R31">
         <f t="shared" si="4"/>
         <v>0.15111194089885668</v>
       </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>0.15111194089885668</v>
+      </c>
       <c r="S31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.15111194089885668</v>
       </c>
       <c r="T31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.15111194089885668</v>
       </c>
       <c r="U31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.15111194089885668</v>
       </c>
       <c r="V31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.15111194089885668</v>
       </c>
       <c r="W31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.15111194089885668</v>
       </c>
     </row>
@@ -31626,43 +31703,43 @@
         <v>0.3</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:W36" si="6">M34</f>
+        <f t="shared" ref="N34:W36" si="5">M34</f>
         <v>0.3</v>
       </c>
       <c r="O34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="P34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="R34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="S34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="T34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="U34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="V34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="W34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
     </row>
@@ -31692,43 +31769,43 @@
         <v>0.3</v>
       </c>
       <c r="N35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="O35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="P35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="R35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="S35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="T35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="U35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="V35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="W35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
     </row>
@@ -31755,43 +31832,43 @@
         <v>10</v>
       </c>
       <c r="N36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="P36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="R36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="S36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="T36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="U36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="V36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="W36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -31847,43 +31924,43 @@
         <v>1990</v>
       </c>
       <c r="N38">
-        <f t="shared" ref="N38:W40" si="7">M38</f>
+        <f t="shared" ref="N38:W40" si="6">M38</f>
         <v>1990</v>
       </c>
       <c r="O38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1990</v>
       </c>
       <c r="P38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1990</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1990</v>
       </c>
       <c r="R38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1990</v>
       </c>
       <c r="S38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1990</v>
       </c>
       <c r="T38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1990</v>
       </c>
       <c r="U38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1990</v>
       </c>
       <c r="V38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1990</v>
       </c>
       <c r="W38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1990</v>
       </c>
     </row>
@@ -31916,43 +31993,43 @@
         <v>2101</v>
       </c>
       <c r="N39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2101</v>
       </c>
       <c r="O39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2101</v>
       </c>
       <c r="P39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2101</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2101</v>
       </c>
       <c r="R39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2101</v>
       </c>
       <c r="S39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2101</v>
       </c>
       <c r="T39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2101</v>
       </c>
       <c r="U39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2101</v>
       </c>
       <c r="V39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2101</v>
       </c>
       <c r="W39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2101</v>
       </c>
     </row>
@@ -31985,43 +32062,43 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="T40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="W40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -32083,43 +32160,43 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <f t="shared" ref="N42:W45" si="8">M42</f>
+        <f t="shared" ref="N42:W45" si="7">M42</f>
         <v>1</v>
       </c>
       <c r="O42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="R42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="W42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -32156,43 +32233,43 @@
         <v>322.27177829999999</v>
       </c>
       <c r="N43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>322.27177829999999</v>
       </c>
       <c r="O43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>322.27177829999999</v>
       </c>
       <c r="P43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>322.27177829999999</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>322.27177829999999</v>
       </c>
       <c r="R43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>322.27177829999999</v>
       </c>
       <c r="S43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>322.27177829999999</v>
       </c>
       <c r="T43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>322.27177829999999</v>
       </c>
       <c r="U43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>322.27177829999999</v>
       </c>
       <c r="V43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>322.27177829999999</v>
       </c>
       <c r="W43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>322.27177829999999</v>
       </c>
     </row>
@@ -32231,43 +32308,43 @@
         <v>3.2099999999999997E-2</v>
       </c>
       <c r="N44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.2099999999999997E-2</v>
       </c>
       <c r="O44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.2099999999999997E-2</v>
       </c>
       <c r="P44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.2099999999999997E-2</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.2099999999999997E-2</v>
       </c>
       <c r="R44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.2099999999999997E-2</v>
       </c>
       <c r="S44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.2099999999999997E-2</v>
       </c>
       <c r="T44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.2099999999999997E-2</v>
       </c>
       <c r="U44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.2099999999999997E-2</v>
       </c>
       <c r="V44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.2099999999999997E-2</v>
       </c>
       <c r="W44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.2099999999999997E-2</v>
       </c>
     </row>
@@ -32306,43 +32383,43 @@
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="N45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="O45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="P45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="R45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="S45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="T45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="U45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="V45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="W45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.8000000000000002E-4</v>
       </c>
     </row>
@@ -32418,43 +32495,43 @@
         <v>0.3</v>
       </c>
       <c r="N48">
-        <f t="shared" ref="N48:W50" si="9">M48</f>
+        <f t="shared" ref="N48:W50" si="8">M48</f>
         <v>0.3</v>
       </c>
       <c r="O48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="P48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="R48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="S48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="T48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="U48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="V48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="W48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
     </row>
@@ -32484,43 +32561,43 @@
         <v>0.3</v>
       </c>
       <c r="N49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="O49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="P49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="R49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="S49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="T49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="U49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="V49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="W49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
     </row>
@@ -32547,43 +32624,43 @@
         <v>10</v>
       </c>
       <c r="N50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="O50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="P50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="S50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="T50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="U50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="V50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="W50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
@@ -32639,43 +32716,43 @@
         <v>1990</v>
       </c>
       <c r="N52">
-        <f t="shared" ref="N52:W54" si="10">M52</f>
+        <f t="shared" ref="N52:W54" si="9">M52</f>
         <v>1990</v>
       </c>
       <c r="O52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1990</v>
       </c>
       <c r="P52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1990</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1990</v>
       </c>
       <c r="R52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1990</v>
       </c>
       <c r="S52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1990</v>
       </c>
       <c r="T52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1990</v>
       </c>
       <c r="U52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1990</v>
       </c>
       <c r="V52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1990</v>
       </c>
       <c r="W52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1990</v>
       </c>
     </row>
@@ -32708,43 +32785,43 @@
         <v>2101</v>
       </c>
       <c r="N53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2101</v>
       </c>
       <c r="O53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2101</v>
       </c>
       <c r="P53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2101</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2101</v>
       </c>
       <c r="R53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2101</v>
       </c>
       <c r="S53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2101</v>
       </c>
       <c r="T53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2101</v>
       </c>
       <c r="U53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2101</v>
       </c>
       <c r="V53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2101</v>
       </c>
       <c r="W53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2101</v>
       </c>
     </row>
@@ -32777,43 +32854,43 @@
         <v>15</v>
       </c>
       <c r="N54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="O54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="P54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="R54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="S54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="T54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="U54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="V54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="W54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
     </row>
@@ -32875,43 +32952,43 @@
         <v>18.034074024672901</v>
       </c>
       <c r="N56">
-        <f t="shared" ref="N56:W58" si="11">M56</f>
+        <f t="shared" ref="N56:W58" si="10">M56</f>
         <v>18.034074024672901</v>
       </c>
       <c r="O56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>18.034074024672901</v>
       </c>
       <c r="P56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>18.034074024672901</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>18.034074024672901</v>
       </c>
       <c r="R56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>18.034074024672901</v>
       </c>
       <c r="S56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>18.034074024672901</v>
       </c>
       <c r="T56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>18.034074024672901</v>
       </c>
       <c r="U56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>18.034074024672901</v>
       </c>
       <c r="V56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>18.034074024672901</v>
       </c>
       <c r="W56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>18.034074024672901</v>
       </c>
     </row>
@@ -32948,43 +33025,43 @@
         <v>112.13077249999999</v>
       </c>
       <c r="N57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>112.13077249999999</v>
       </c>
       <c r="O57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>112.13077249999999</v>
       </c>
       <c r="P57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>112.13077249999999</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>112.13077249999999</v>
       </c>
       <c r="R57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>112.13077249999999</v>
       </c>
       <c r="S57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>112.13077249999999</v>
       </c>
       <c r="T57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>112.13077249999999</v>
       </c>
       <c r="U57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>112.13077249999999</v>
       </c>
       <c r="V57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>112.13077249999999</v>
       </c>
       <c r="W57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>112.13077249999999</v>
       </c>
     </row>
@@ -33023,43 +33100,43 @@
         <v>3.2544819999999999E-3</v>
       </c>
       <c r="N58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.2544819999999999E-3</v>
       </c>
       <c r="O58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.2544819999999999E-3</v>
       </c>
       <c r="P58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.2544819999999999E-3</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.2544819999999999E-3</v>
       </c>
       <c r="R58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.2544819999999999E-3</v>
       </c>
       <c r="S58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.2544819999999999E-3</v>
       </c>
       <c r="T58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.2544819999999999E-3</v>
       </c>
       <c r="U58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.2544819999999999E-3</v>
       </c>
       <c r="V58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.2544819999999999E-3</v>
       </c>
       <c r="W58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.2544819999999999E-3</v>
       </c>
     </row>
@@ -33115,43 +33192,43 @@
         <v>1990</v>
       </c>
       <c r="N60">
-        <f t="shared" ref="N60:W62" si="12">M60</f>
+        <f t="shared" ref="N60:W62" si="11">M60</f>
         <v>1990</v>
       </c>
       <c r="O60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1990</v>
       </c>
       <c r="P60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1990</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1990</v>
       </c>
       <c r="R60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1990</v>
       </c>
       <c r="S60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1990</v>
       </c>
       <c r="T60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1990</v>
       </c>
       <c r="U60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1990</v>
       </c>
       <c r="V60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1990</v>
       </c>
       <c r="W60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1990</v>
       </c>
     </row>
@@ -33184,43 +33261,43 @@
         <v>2101</v>
       </c>
       <c r="N61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2101</v>
       </c>
       <c r="O61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2101</v>
       </c>
       <c r="P61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2101</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2101</v>
       </c>
       <c r="R61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2101</v>
       </c>
       <c r="S61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2101</v>
       </c>
       <c r="T61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2101</v>
       </c>
       <c r="U61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2101</v>
       </c>
       <c r="V61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2101</v>
       </c>
       <c r="W61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2101</v>
       </c>
     </row>
@@ -33253,43 +33330,43 @@
         <v>15</v>
       </c>
       <c r="N62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="O62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="P62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="R62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="S62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="T62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="U62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="V62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="W62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
@@ -33351,43 +33428,43 @@
         <v>14.264479537943901</v>
       </c>
       <c r="N64">
-        <f t="shared" ref="N64:W67" si="13">M64</f>
+        <f t="shared" ref="N64:W67" si="12">M64</f>
         <v>14.264479537943901</v>
       </c>
       <c r="O64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>14.264479537943901</v>
       </c>
       <c r="P64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>14.264479537943901</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>14.264479537943901</v>
       </c>
       <c r="R64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>14.264479537943901</v>
       </c>
       <c r="S64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>14.264479537943901</v>
       </c>
       <c r="T64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>14.264479537943901</v>
       </c>
       <c r="U64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>14.264479537943901</v>
       </c>
       <c r="V64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>14.264479537943901</v>
       </c>
       <c r="W64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>14.264479537943901</v>
       </c>
     </row>
@@ -33420,43 +33497,43 @@
         <v>18.5654205607477</v>
       </c>
       <c r="N65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>18.5654205607477</v>
       </c>
       <c r="O65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>18.5654205607477</v>
       </c>
       <c r="P65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>18.5654205607477</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>18.5654205607477</v>
       </c>
       <c r="R65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>18.5654205607477</v>
       </c>
       <c r="S65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>18.5654205607477</v>
       </c>
       <c r="T65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>18.5654205607477</v>
       </c>
       <c r="U65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>18.5654205607477</v>
       </c>
       <c r="V65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>18.5654205607477</v>
       </c>
       <c r="W65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>18.5654205607477</v>
       </c>
     </row>
@@ -33493,43 +33570,43 @@
         <v>63.610106829999992</v>
       </c>
       <c r="N66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>63.610106829999992</v>
       </c>
       <c r="O66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>63.610106829999992</v>
       </c>
       <c r="P66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>63.610106829999992</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>63.610106829999992</v>
       </c>
       <c r="R66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>63.610106829999992</v>
       </c>
       <c r="S66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>63.610106829999992</v>
       </c>
       <c r="T66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>63.610106829999992</v>
       </c>
       <c r="U66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>63.610106829999992</v>
       </c>
       <c r="V66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>63.610106829999992</v>
       </c>
       <c r="W66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>63.610106829999992</v>
       </c>
     </row>
@@ -33568,43 +33645,43 @@
         <v>1.30232E-3</v>
       </c>
       <c r="N67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.30232E-3</v>
       </c>
       <c r="O67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.30232E-3</v>
       </c>
       <c r="P67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.30232E-3</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.30232E-3</v>
       </c>
       <c r="R67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.30232E-3</v>
       </c>
       <c r="S67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.30232E-3</v>
       </c>
       <c r="T67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.30232E-3</v>
       </c>
       <c r="U67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.30232E-3</v>
       </c>
       <c r="V67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.30232E-3</v>
       </c>
       <c r="W67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.30232E-3</v>
       </c>
     </row>
@@ -33660,43 +33737,43 @@
         <v>1990</v>
       </c>
       <c r="N69">
-        <f t="shared" ref="N69:W71" si="14">M69</f>
+        <f t="shared" ref="N69:W71" si="13">M69</f>
         <v>1990</v>
       </c>
       <c r="O69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1990</v>
       </c>
       <c r="P69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1990</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1990</v>
       </c>
       <c r="R69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1990</v>
       </c>
       <c r="S69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1990</v>
       </c>
       <c r="T69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1990</v>
       </c>
       <c r="U69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1990</v>
       </c>
       <c r="V69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1990</v>
       </c>
       <c r="W69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1990</v>
       </c>
     </row>
@@ -33729,43 +33806,43 @@
         <v>2101</v>
       </c>
       <c r="N70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2101</v>
       </c>
       <c r="O70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2101</v>
       </c>
       <c r="P70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2101</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2101</v>
       </c>
       <c r="R70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2101</v>
       </c>
       <c r="S70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2101</v>
       </c>
       <c r="T70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2101</v>
       </c>
       <c r="U70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2101</v>
       </c>
       <c r="V70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2101</v>
       </c>
       <c r="W70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2101</v>
       </c>
     </row>
@@ -33798,43 +33875,43 @@
         <v>15</v>
       </c>
       <c r="N71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="O71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="P71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="R71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="S71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="T71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="U71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="V71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="W71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
     </row>
@@ -33896,43 +33973,43 @@
         <v>14.9243067482243</v>
       </c>
       <c r="N73">
-        <f t="shared" ref="N73:W76" si="15">M73</f>
+        <f t="shared" ref="N73:W76" si="14">M73</f>
         <v>14.9243067482243</v>
       </c>
       <c r="O73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>14.9243067482243</v>
       </c>
       <c r="P73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>14.9243067482243</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>14.9243067482243</v>
       </c>
       <c r="R73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>14.9243067482243</v>
       </c>
       <c r="S73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>14.9243067482243</v>
       </c>
       <c r="T73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>14.9243067482243</v>
       </c>
       <c r="U73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>14.9243067482243</v>
       </c>
       <c r="V73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>14.9243067482243</v>
       </c>
       <c r="W73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>14.9243067482243</v>
       </c>
     </row>
@@ -33965,43 +34042,43 @@
         <v>37.130841121495301</v>
       </c>
       <c r="N74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>37.130841121495301</v>
       </c>
       <c r="O74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>37.130841121495301</v>
       </c>
       <c r="P74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>37.130841121495301</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>37.130841121495301</v>
       </c>
       <c r="R74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>37.130841121495301</v>
       </c>
       <c r="S74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>37.130841121495301</v>
       </c>
       <c r="T74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>37.130841121495301</v>
       </c>
       <c r="U74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>37.130841121495301</v>
       </c>
       <c r="V74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>37.130841121495301</v>
       </c>
       <c r="W74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>37.130841121495301</v>
       </c>
     </row>
@@ -34038,43 +34115,43 @@
         <v>42.914586910000004</v>
       </c>
       <c r="N75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>42.914586910000004</v>
       </c>
       <c r="O75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>42.914586910000004</v>
       </c>
       <c r="P75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>42.914586910000004</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>42.914586910000004</v>
       </c>
       <c r="R75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>42.914586910000004</v>
       </c>
       <c r="S75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>42.914586910000004</v>
       </c>
       <c r="T75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>42.914586910000004</v>
       </c>
       <c r="U75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>42.914586910000004</v>
       </c>
       <c r="V75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>42.914586910000004</v>
       </c>
       <c r="W75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>42.914586910000004</v>
       </c>
     </row>
@@ -34113,43 +34190,43 @@
         <v>1.30232E-3</v>
       </c>
       <c r="N76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.30232E-3</v>
       </c>
       <c r="O76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.30232E-3</v>
       </c>
       <c r="P76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.30232E-3</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.30232E-3</v>
       </c>
       <c r="R76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.30232E-3</v>
       </c>
       <c r="S76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.30232E-3</v>
       </c>
       <c r="T76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.30232E-3</v>
       </c>
       <c r="U76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.30232E-3</v>
       </c>
       <c r="V76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.30232E-3</v>
       </c>
       <c r="W76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.30232E-3</v>
       </c>
     </row>
@@ -34205,43 +34282,43 @@
         <v>2015</v>
       </c>
       <c r="N78">
-        <f t="shared" ref="N78:W80" si="16">M78</f>
+        <f t="shared" ref="N78:W80" si="15">M78</f>
         <v>2015</v>
       </c>
       <c r="O78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2015</v>
       </c>
       <c r="P78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2015</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2015</v>
       </c>
       <c r="R78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2015</v>
       </c>
       <c r="S78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2015</v>
       </c>
       <c r="T78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2015</v>
       </c>
       <c r="U78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2015</v>
       </c>
       <c r="V78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2015</v>
       </c>
       <c r="W78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2015</v>
       </c>
     </row>
@@ -34274,43 +34351,43 @@
         <v>2101</v>
       </c>
       <c r="N79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2101</v>
       </c>
       <c r="O79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2101</v>
       </c>
       <c r="P79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2101</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2101</v>
       </c>
       <c r="R79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2101</v>
       </c>
       <c r="S79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2101</v>
       </c>
       <c r="T79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2101</v>
       </c>
       <c r="U79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2101</v>
       </c>
       <c r="V79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2101</v>
       </c>
       <c r="W79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2101</v>
       </c>
     </row>
@@ -34343,43 +34420,43 @@
         <v>10000</v>
       </c>
       <c r="N80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>10000</v>
       </c>
       <c r="O80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>10000</v>
       </c>
       <c r="P80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>10000</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>10000</v>
       </c>
       <c r="R80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>10000</v>
       </c>
       <c r="S80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>10000</v>
       </c>
       <c r="T80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>10000</v>
       </c>
       <c r="U80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>10000</v>
       </c>
       <c r="V80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>10000</v>
       </c>
       <c r="W80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>10000</v>
       </c>
     </row>
@@ -34441,43 +34518,43 @@
         <v>307.28971962616799</v>
       </c>
       <c r="N82">
-        <f t="shared" ref="N82:W83" si="17">M82</f>
+        <f t="shared" ref="N82:W83" si="16">M82</f>
         <v>307.28971962616799</v>
       </c>
       <c r="O82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>307.28971962616799</v>
       </c>
       <c r="P82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>307.28971962616799</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>307.28971962616799</v>
       </c>
       <c r="R82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>307.28971962616799</v>
       </c>
       <c r="S82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>307.28971962616799</v>
       </c>
       <c r="T82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>307.28971962616799</v>
       </c>
       <c r="U82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>307.28971962616799</v>
       </c>
       <c r="V82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>307.28971962616799</v>
       </c>
       <c r="W82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>307.28971962616799</v>
       </c>
     </row>
@@ -34510,43 +34587,43 @@
         <v>20</v>
       </c>
       <c r="N83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="O83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="P83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="R83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="S83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="T83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="U83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="V83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="W83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
     </row>
@@ -34602,43 +34679,43 @@
         <v>2015</v>
       </c>
       <c r="N85">
-        <f t="shared" ref="N85:W87" si="18">M85</f>
+        <f t="shared" ref="N85:W87" si="17">M85</f>
         <v>2015</v>
       </c>
       <c r="O85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2015</v>
       </c>
       <c r="P85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2015</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2015</v>
       </c>
       <c r="R85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2015</v>
       </c>
       <c r="S85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2015</v>
       </c>
       <c r="T85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2015</v>
       </c>
       <c r="U85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2015</v>
       </c>
       <c r="V85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2015</v>
       </c>
       <c r="W85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2015</v>
       </c>
     </row>
@@ -34671,43 +34748,43 @@
         <v>2101</v>
       </c>
       <c r="N86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2101</v>
       </c>
       <c r="O86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2101</v>
       </c>
       <c r="P86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2101</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2101</v>
       </c>
       <c r="R86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2101</v>
       </c>
       <c r="S86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2101</v>
       </c>
       <c r="T86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2101</v>
       </c>
       <c r="U86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2101</v>
       </c>
       <c r="V86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2101</v>
       </c>
       <c r="W86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2101</v>
       </c>
     </row>
@@ -34740,43 +34817,43 @@
         <v>10000</v>
       </c>
       <c r="N87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>10000</v>
       </c>
       <c r="O87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>10000</v>
       </c>
       <c r="P87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>10000</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>10000</v>
       </c>
       <c r="R87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>10000</v>
       </c>
       <c r="S87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>10000</v>
       </c>
       <c r="T87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>10000</v>
       </c>
       <c r="U87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>10000</v>
       </c>
       <c r="V87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>10000</v>
       </c>
       <c r="W87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>10000</v>
       </c>
     </row>
@@ -34838,43 +34915,43 @@
         <v>307.28971962616799</v>
       </c>
       <c r="N89">
-        <f t="shared" ref="N89:W90" si="19">M89</f>
+        <f t="shared" ref="N89:W90" si="18">M89</f>
         <v>307.28971962616799</v>
       </c>
       <c r="O89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>307.28971962616799</v>
       </c>
       <c r="P89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>307.28971962616799</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>307.28971962616799</v>
       </c>
       <c r="R89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>307.28971962616799</v>
       </c>
       <c r="S89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>307.28971962616799</v>
       </c>
       <c r="T89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>307.28971962616799</v>
       </c>
       <c r="U89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>307.28971962616799</v>
       </c>
       <c r="V89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>307.28971962616799</v>
       </c>
       <c r="W89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>307.28971962616799</v>
       </c>
     </row>
@@ -34907,43 +34984,43 @@
         <v>20</v>
       </c>
       <c r="N90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="O90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="P90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="R90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="S90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="T90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="U90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="V90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="W90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
     </row>
@@ -35019,43 +35096,43 @@
         <v>0.3</v>
       </c>
       <c r="N93">
-        <f t="shared" ref="N93:W95" si="20">M93</f>
+        <f t="shared" ref="N93:W95" si="19">M93</f>
         <v>0.3</v>
       </c>
       <c r="O93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="P93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="R93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="S93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="T93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="U93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="V93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="W93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
     </row>
@@ -35085,43 +35162,43 @@
         <v>0.3</v>
       </c>
       <c r="N94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="O94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="P94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="R94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="S94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="T94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="U94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="V94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="W94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
     </row>
@@ -35148,43 +35225,43 @@
         <v>15</v>
       </c>
       <c r="N95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="O95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="P95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="R95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="S95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="T95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="U95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="V95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="W95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
     </row>
@@ -35240,43 +35317,43 @@
         <v>1990</v>
       </c>
       <c r="N97">
-        <f t="shared" ref="N97:W99" si="21">M97</f>
+        <f t="shared" ref="N97:W99" si="20">M97</f>
         <v>1990</v>
       </c>
       <c r="O97">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1990</v>
       </c>
       <c r="P97">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1990</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1990</v>
       </c>
       <c r="R97">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1990</v>
       </c>
       <c r="S97">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1990</v>
       </c>
       <c r="T97">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1990</v>
       </c>
       <c r="U97">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1990</v>
       </c>
       <c r="V97">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1990</v>
       </c>
       <c r="W97">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1990</v>
       </c>
     </row>
@@ -35309,43 +35386,43 @@
         <v>2101</v>
       </c>
       <c r="N98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2101</v>
       </c>
       <c r="O98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2101</v>
       </c>
       <c r="P98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2101</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2101</v>
       </c>
       <c r="R98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2101</v>
       </c>
       <c r="S98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2101</v>
       </c>
       <c r="T98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2101</v>
       </c>
       <c r="U98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2101</v>
       </c>
       <c r="V98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2101</v>
       </c>
       <c r="W98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2101</v>
       </c>
     </row>
@@ -35378,43 +35455,43 @@
         <v>16</v>
       </c>
       <c r="N99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="O99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="P99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="R99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="S99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="T99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="U99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="V99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="W99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
     </row>
@@ -35476,43 +35553,43 @@
         <v>20000</v>
       </c>
       <c r="N101">
-        <f t="shared" ref="N101:W103" si="22">M101</f>
+        <f t="shared" ref="N101:W103" si="21">M101</f>
         <v>20000</v>
       </c>
       <c r="O101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>20000</v>
       </c>
       <c r="P101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>20000</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>20000</v>
       </c>
       <c r="R101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>20000</v>
       </c>
       <c r="S101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>20000</v>
       </c>
       <c r="T101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>20000</v>
       </c>
       <c r="U101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>20000</v>
       </c>
       <c r="V101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>20000</v>
       </c>
       <c r="W101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>20000</v>
       </c>
     </row>
@@ -35545,43 +35622,43 @@
         <v>8962.6168224299108</v>
       </c>
       <c r="N102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>8962.6168224299108</v>
       </c>
       <c r="O102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>8962.6168224299108</v>
       </c>
       <c r="P102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>8962.6168224299108</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>8962.6168224299108</v>
       </c>
       <c r="R102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>8962.6168224299108</v>
       </c>
       <c r="S102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>8962.6168224299108</v>
       </c>
       <c r="T102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>8962.6168224299108</v>
       </c>
       <c r="U102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>8962.6168224299108</v>
       </c>
       <c r="V102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>8962.6168224299108</v>
       </c>
       <c r="W102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>8962.6168224299108</v>
       </c>
     </row>
@@ -35617,43 +35694,43 @@
         <v>3.0977679999999999E-3</v>
       </c>
       <c r="N103">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>3.0977679999999999E-3</v>
       </c>
       <c r="O103">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>3.0977679999999999E-3</v>
       </c>
       <c r="P103">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>3.0977679999999999E-3</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>3.0977679999999999E-3</v>
       </c>
       <c r="R103">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>3.0977679999999999E-3</v>
       </c>
       <c r="S103">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>3.0977679999999999E-3</v>
       </c>
       <c r="T103">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>3.0977679999999999E-3</v>
       </c>
       <c r="U103">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>3.0977679999999999E-3</v>
       </c>
       <c r="V103">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>3.0977679999999999E-3</v>
       </c>
       <c r="W103">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>3.0977679999999999E-3</v>
       </c>
     </row>
@@ -35709,43 +35786,43 @@
         <v>2015</v>
       </c>
       <c r="N105">
-        <f t="shared" ref="N105:W107" si="23">M105</f>
+        <f t="shared" ref="N105:W107" si="22">M105</f>
         <v>2015</v>
       </c>
       <c r="O105">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2015</v>
       </c>
       <c r="P105">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2015</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2015</v>
       </c>
       <c r="R105">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2015</v>
       </c>
       <c r="S105">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2015</v>
       </c>
       <c r="T105">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2015</v>
       </c>
       <c r="U105">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2015</v>
       </c>
       <c r="V105">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2015</v>
       </c>
       <c r="W105">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2015</v>
       </c>
     </row>
@@ -35778,43 +35855,43 @@
         <v>2101</v>
       </c>
       <c r="N106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2101</v>
       </c>
       <c r="O106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2101</v>
       </c>
       <c r="P106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2101</v>
       </c>
       <c r="Q106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2101</v>
       </c>
       <c r="R106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2101</v>
       </c>
       <c r="S106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2101</v>
       </c>
       <c r="T106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2101</v>
       </c>
       <c r="U106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2101</v>
       </c>
       <c r="V106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2101</v>
       </c>
       <c r="W106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2101</v>
       </c>
     </row>
@@ -35847,43 +35924,43 @@
         <v>16</v>
       </c>
       <c r="N107">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="O107">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="P107">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="R107">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="S107">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="T107">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="U107">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="V107">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="W107">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
     </row>
@@ -35945,43 +36022,43 @@
         <v>20000</v>
       </c>
       <c r="N109">
-        <f t="shared" ref="N109:W111" si="24">M109</f>
+        <f t="shared" ref="N109:W111" si="23">M109</f>
         <v>20000</v>
       </c>
       <c r="O109">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>20000</v>
       </c>
       <c r="P109">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>20000</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>20000</v>
       </c>
       <c r="R109">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>20000</v>
       </c>
       <c r="S109">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>20000</v>
       </c>
       <c r="T109">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>20000</v>
       </c>
       <c r="U109">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>20000</v>
       </c>
       <c r="V109">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>20000</v>
       </c>
       <c r="W109">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>20000</v>
       </c>
     </row>
@@ -36014,43 +36091,43 @@
         <v>9218.69158878505</v>
       </c>
       <c r="N110">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>9218.69158878505</v>
       </c>
       <c r="O110">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>9218.69158878505</v>
       </c>
       <c r="P110">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>9218.69158878505</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>9218.69158878505</v>
       </c>
       <c r="R110">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>9218.69158878505</v>
       </c>
       <c r="S110">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>9218.69158878505</v>
       </c>
       <c r="T110">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>9218.69158878505</v>
       </c>
       <c r="U110">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>9218.69158878505</v>
       </c>
       <c r="V110">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>9218.69158878505</v>
       </c>
       <c r="W110">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>9218.69158878505</v>
       </c>
     </row>
@@ -36086,43 +36163,43 @@
         <v>2.960088E-3</v>
       </c>
       <c r="N111">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2.960088E-3</v>
       </c>
       <c r="O111">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2.960088E-3</v>
       </c>
       <c r="P111">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2.960088E-3</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2.960088E-3</v>
       </c>
       <c r="R111">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2.960088E-3</v>
       </c>
       <c r="S111">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2.960088E-3</v>
       </c>
       <c r="T111">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2.960088E-3</v>
       </c>
       <c r="U111">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2.960088E-3</v>
       </c>
       <c r="V111">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2.960088E-3</v>
       </c>
       <c r="W111">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2.960088E-3</v>
       </c>
     </row>
@@ -36178,43 +36255,43 @@
         <v>2015</v>
       </c>
       <c r="N113">
-        <f t="shared" ref="N113:W115" si="25">M113</f>
+        <f t="shared" ref="N113:W115" si="24">M113</f>
         <v>2015</v>
       </c>
       <c r="O113">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2015</v>
       </c>
       <c r="P113">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2015</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2015</v>
       </c>
       <c r="R113">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2015</v>
       </c>
       <c r="S113">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2015</v>
       </c>
       <c r="T113">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2015</v>
       </c>
       <c r="U113">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2015</v>
       </c>
       <c r="V113">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2015</v>
       </c>
       <c r="W113">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2015</v>
       </c>
     </row>
@@ -36247,43 +36324,43 @@
         <v>2101</v>
       </c>
       <c r="N114">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2101</v>
       </c>
       <c r="O114">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2101</v>
       </c>
       <c r="P114">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2101</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2101</v>
       </c>
       <c r="R114">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2101</v>
       </c>
       <c r="S114">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2101</v>
       </c>
       <c r="T114">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2101</v>
       </c>
       <c r="U114">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2101</v>
       </c>
       <c r="V114">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2101</v>
       </c>
       <c r="W114">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2101</v>
       </c>
     </row>
@@ -36316,43 +36393,43 @@
         <v>16</v>
       </c>
       <c r="N115">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="O115">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="P115">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="R115">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="S115">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="T115">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="U115">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="V115">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="W115">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
     </row>
@@ -36414,43 +36491,43 @@
         <v>20000</v>
       </c>
       <c r="N117">
-        <f t="shared" ref="N117:W119" si="26">M117</f>
+        <f t="shared" ref="N117:W119" si="25">M117</f>
         <v>20000</v>
       </c>
       <c r="O117">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>20000</v>
       </c>
       <c r="P117">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>20000</v>
       </c>
       <c r="Q117">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>20000</v>
       </c>
       <c r="R117">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>20000</v>
       </c>
       <c r="S117">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>20000</v>
       </c>
       <c r="T117">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>20000</v>
       </c>
       <c r="U117">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>20000</v>
       </c>
       <c r="V117">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>20000</v>
       </c>
       <c r="W117">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>20000</v>
       </c>
     </row>
@@ -36483,43 +36560,43 @@
         <v>192615.84882803701</v>
       </c>
       <c r="N118">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>192615.84882803701</v>
       </c>
       <c r="O118">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>192615.84882803701</v>
       </c>
       <c r="P118">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>192615.84882803701</v>
       </c>
       <c r="Q118">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>192615.84882803701</v>
       </c>
       <c r="R118">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>192615.84882803701</v>
       </c>
       <c r="S118">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>192615.84882803701</v>
       </c>
       <c r="T118">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>192615.84882803701</v>
       </c>
       <c r="U118">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>192615.84882803701</v>
       </c>
       <c r="V118">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>192615.84882803701</v>
       </c>
       <c r="W118">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>192615.84882803701</v>
       </c>
     </row>
@@ -36555,43 +36632,43 @@
         <v>2.6199999999999999E-3</v>
       </c>
       <c r="N119">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2.6199999999999999E-3</v>
       </c>
       <c r="O119">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2.6199999999999999E-3</v>
       </c>
       <c r="P119">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2.6199999999999999E-3</v>
       </c>
       <c r="Q119">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2.6199999999999999E-3</v>
       </c>
       <c r="R119">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2.6199999999999999E-3</v>
       </c>
       <c r="S119">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2.6199999999999999E-3</v>
       </c>
       <c r="T119">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2.6199999999999999E-3</v>
       </c>
       <c r="U119">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2.6199999999999999E-3</v>
       </c>
       <c r="V119">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2.6199999999999999E-3</v>
       </c>
       <c r="W119">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2.6199999999999999E-3</v>
       </c>
     </row>
@@ -36667,43 +36744,43 @@
         <v>0.3</v>
       </c>
       <c r="N122">
-        <f t="shared" ref="N122:W124" si="27">M122</f>
+        <f t="shared" ref="N122:W124" si="26">M122</f>
         <v>0.3</v>
       </c>
       <c r="O122">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
       <c r="P122">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
       <c r="Q122">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
       <c r="R122">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
       <c r="S122">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
       <c r="T122">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
       <c r="U122">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
       <c r="V122">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
       <c r="W122">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
     </row>
@@ -36733,43 +36810,43 @@
         <v>0.3</v>
       </c>
       <c r="N123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
       <c r="O123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
       <c r="P123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
       <c r="Q123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
       <c r="R123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
       <c r="S123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
       <c r="T123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
       <c r="U123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
       <c r="V123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
       <c r="W123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
     </row>
@@ -36796,43 +36873,43 @@
         <v>15</v>
       </c>
       <c r="N124">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="O124">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="P124">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="Q124">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="R124">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="S124">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="T124">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="U124">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="V124">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="W124">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
     </row>
@@ -36888,43 +36965,43 @@
         <v>1990</v>
       </c>
       <c r="N126">
-        <f t="shared" ref="N126:W128" si="28">M126</f>
+        <f t="shared" ref="N126:W128" si="27">M126</f>
         <v>1990</v>
       </c>
       <c r="O126">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1990</v>
       </c>
       <c r="P126">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1990</v>
       </c>
       <c r="Q126">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1990</v>
       </c>
       <c r="R126">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1990</v>
       </c>
       <c r="S126">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1990</v>
       </c>
       <c r="T126">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1990</v>
       </c>
       <c r="U126">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1990</v>
       </c>
       <c r="V126">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1990</v>
       </c>
       <c r="W126">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1990</v>
       </c>
     </row>
@@ -36957,43 +37034,43 @@
         <v>2101</v>
       </c>
       <c r="N127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2101</v>
       </c>
       <c r="O127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2101</v>
       </c>
       <c r="P127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2101</v>
       </c>
       <c r="Q127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2101</v>
       </c>
       <c r="R127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2101</v>
       </c>
       <c r="S127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2101</v>
       </c>
       <c r="T127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2101</v>
       </c>
       <c r="U127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2101</v>
       </c>
       <c r="V127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2101</v>
       </c>
       <c r="W127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2101</v>
       </c>
     </row>
@@ -37026,43 +37103,43 @@
         <v>16</v>
       </c>
       <c r="N128">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="O128">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="P128">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="Q128">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="R128">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="S128">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="T128">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="U128">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="V128">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="W128">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
     </row>
@@ -37124,43 +37201,43 @@
         <v>1</v>
       </c>
       <c r="N130">
-        <f t="shared" ref="N130:W131" si="29">M130</f>
+        <f t="shared" ref="N130:W131" si="28">M130</f>
         <v>1</v>
       </c>
       <c r="O130">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="P130">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Q130">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R130">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="S130">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="T130">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="U130">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="V130">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="W130">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
     </row>
@@ -37196,43 +37273,43 @@
         <v>1</v>
       </c>
       <c r="N131">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="O131">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="P131">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Q131">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R131">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="S131">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="T131">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="U131">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="V131">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="W131">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
     </row>
@@ -37288,43 +37365,43 @@
         <v>2015</v>
       </c>
       <c r="N133">
-        <f t="shared" ref="N133:W135" si="30">M133</f>
+        <f t="shared" ref="N133:W135" si="29">M133</f>
         <v>2015</v>
       </c>
       <c r="O133">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2015</v>
       </c>
       <c r="P133">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2015</v>
       </c>
       <c r="Q133">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2015</v>
       </c>
       <c r="R133">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2015</v>
       </c>
       <c r="S133">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2015</v>
       </c>
       <c r="T133">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2015</v>
       </c>
       <c r="U133">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2015</v>
       </c>
       <c r="V133">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2015</v>
       </c>
       <c r="W133">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2015</v>
       </c>
     </row>
@@ -37357,43 +37434,43 @@
         <v>2101</v>
       </c>
       <c r="N134">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2101</v>
       </c>
       <c r="O134">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2101</v>
       </c>
       <c r="P134">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2101</v>
       </c>
       <c r="Q134">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2101</v>
       </c>
       <c r="R134">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2101</v>
       </c>
       <c r="S134">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2101</v>
       </c>
       <c r="T134">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2101</v>
       </c>
       <c r="U134">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2101</v>
       </c>
       <c r="V134">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2101</v>
       </c>
       <c r="W134">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2101</v>
       </c>
     </row>
@@ -37426,43 +37503,43 @@
         <v>16</v>
       </c>
       <c r="N135">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="O135">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="P135">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="Q135">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="R135">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="S135">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="T135">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="U135">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="V135">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="W135">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
     </row>
@@ -37524,43 +37601,43 @@
         <v>1</v>
       </c>
       <c r="N137">
-        <f t="shared" ref="N137:W138" si="31">M137</f>
+        <f t="shared" ref="N137:W138" si="30">M137</f>
         <v>1</v>
       </c>
       <c r="O137">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P137">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Q137">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="R137">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="S137">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="T137">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="U137">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="V137">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W137">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
@@ -37596,43 +37673,43 @@
         <v>1</v>
       </c>
       <c r="N138">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O138">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P138">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Q138">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="R138">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="S138">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="T138">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="U138">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="V138">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W138">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
@@ -37708,43 +37785,43 @@
         <v>0.4</v>
       </c>
       <c r="N141">
-        <f t="shared" ref="N141:W142" si="32">M141</f>
+        <f t="shared" ref="N141:W142" si="31">M141</f>
         <v>0.4</v>
       </c>
       <c r="O141">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.4</v>
       </c>
       <c r="P141">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.4</v>
       </c>
       <c r="Q141">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.4</v>
       </c>
       <c r="R141">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.4</v>
       </c>
       <c r="S141">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.4</v>
       </c>
       <c r="T141">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.4</v>
       </c>
       <c r="U141">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.4</v>
       </c>
       <c r="V141">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.4</v>
       </c>
       <c r="W141">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.4</v>
       </c>
     </row>
@@ -37771,43 +37848,43 @@
         <v>10</v>
       </c>
       <c r="N142">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="O142">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="P142">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="Q142">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="R142">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="S142">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="T142">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="U142">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="V142">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="W142">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
     </row>
@@ -37863,43 +37940,43 @@
         <v>1990</v>
       </c>
       <c r="N144">
-        <f t="shared" ref="N144:W146" si="33">M144</f>
+        <f t="shared" ref="N144:W146" si="32">M144</f>
         <v>1990</v>
       </c>
       <c r="O144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>1990</v>
       </c>
       <c r="P144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>1990</v>
       </c>
       <c r="Q144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>1990</v>
       </c>
       <c r="R144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>1990</v>
       </c>
       <c r="S144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>1990</v>
       </c>
       <c r="T144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>1990</v>
       </c>
       <c r="U144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>1990</v>
       </c>
       <c r="V144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>1990</v>
       </c>
       <c r="W144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>1990</v>
       </c>
     </row>
@@ -37932,43 +38009,43 @@
         <v>2101</v>
       </c>
       <c r="N145">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>2101</v>
       </c>
       <c r="O145">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>2101</v>
       </c>
       <c r="P145">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>2101</v>
       </c>
       <c r="Q145">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>2101</v>
       </c>
       <c r="R145">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>2101</v>
       </c>
       <c r="S145">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>2101</v>
       </c>
       <c r="T145">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>2101</v>
       </c>
       <c r="U145">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>2101</v>
       </c>
       <c r="V145">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>2101</v>
       </c>
       <c r="W145">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>2101</v>
       </c>
     </row>
@@ -38001,43 +38078,43 @@
         <v>20</v>
       </c>
       <c r="N146">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>20</v>
       </c>
       <c r="O146">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>20</v>
       </c>
       <c r="P146">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>20</v>
       </c>
       <c r="Q146">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>20</v>
       </c>
       <c r="R146">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>20</v>
       </c>
       <c r="S146">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>20</v>
       </c>
       <c r="T146">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>20</v>
       </c>
       <c r="U146">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>20</v>
       </c>
       <c r="V146">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>20</v>
       </c>
       <c r="W146">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>20</v>
       </c>
     </row>
@@ -38099,43 +38176,43 @@
         <v>691272.4</v>
       </c>
       <c r="N148">
-        <f t="shared" ref="N148:W151" si="34">M148</f>
+        <f t="shared" ref="N148:W151" si="33">M148</f>
         <v>691272.4</v>
       </c>
       <c r="O148">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>691272.4</v>
       </c>
       <c r="P148">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>691272.4</v>
       </c>
       <c r="Q148">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>691272.4</v>
       </c>
       <c r="R148">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>691272.4</v>
       </c>
       <c r="S148">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>691272.4</v>
       </c>
       <c r="T148">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>691272.4</v>
       </c>
       <c r="U148">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>691272.4</v>
       </c>
       <c r="V148">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>691272.4</v>
       </c>
       <c r="W148">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>691272.4</v>
       </c>
     </row>
@@ -38168,43 +38245,43 @@
         <v>17979022.343183398</v>
       </c>
       <c r="N149">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>17979022.343183398</v>
       </c>
       <c r="O149">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>17979022.343183398</v>
       </c>
       <c r="P149">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>17979022.343183398</v>
       </c>
       <c r="Q149">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>17979022.343183398</v>
       </c>
       <c r="R149">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>17979022.343183398</v>
       </c>
       <c r="S149">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>17979022.343183398</v>
       </c>
       <c r="T149">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>17979022.343183398</v>
       </c>
       <c r="U149">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>17979022.343183398</v>
       </c>
       <c r="V149">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>17979022.343183398</v>
       </c>
       <c r="W149">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>17979022.343183398</v>
       </c>
     </row>
@@ -38237,43 +38314,43 @@
         <v>719160.89372733701</v>
       </c>
       <c r="N150">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>719160.89372733701</v>
       </c>
       <c r="O150">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>719160.89372733701</v>
       </c>
       <c r="P150">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>719160.89372733701</v>
       </c>
       <c r="Q150">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>719160.89372733701</v>
       </c>
       <c r="R150">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>719160.89372733701</v>
       </c>
       <c r="S150">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>719160.89372733701</v>
       </c>
       <c r="T150">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>719160.89372733701</v>
       </c>
       <c r="U150">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>719160.89372733701</v>
       </c>
       <c r="V150">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>719160.89372733701</v>
       </c>
       <c r="W150">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>719160.89372733701</v>
       </c>
     </row>
@@ -38309,43 +38386,43 @@
         <v>20</v>
       </c>
       <c r="N151">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>20</v>
       </c>
       <c r="O151">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>20</v>
       </c>
       <c r="P151">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>20</v>
       </c>
       <c r="Q151">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>20</v>
       </c>
       <c r="R151">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>20</v>
       </c>
       <c r="S151">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>20</v>
       </c>
       <c r="T151">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>20</v>
       </c>
       <c r="U151">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>20</v>
       </c>
       <c r="V151">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>20</v>
       </c>
       <c r="W151">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>20</v>
       </c>
     </row>
@@ -38401,43 +38478,43 @@
         <v>1990</v>
       </c>
       <c r="N153">
-        <f t="shared" ref="N153:W155" si="35">M153</f>
+        <f t="shared" ref="N153:W155" si="34">M153</f>
         <v>1990</v>
       </c>
       <c r="O153">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>1990</v>
       </c>
       <c r="P153">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>1990</v>
       </c>
       <c r="Q153">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>1990</v>
       </c>
       <c r="R153">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>1990</v>
       </c>
       <c r="S153">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>1990</v>
       </c>
       <c r="T153">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>1990</v>
       </c>
       <c r="U153">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>1990</v>
       </c>
       <c r="V153">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>1990</v>
       </c>
       <c r="W153">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>1990</v>
       </c>
     </row>
@@ -38470,43 +38547,43 @@
         <v>2101</v>
       </c>
       <c r="N154">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>2101</v>
       </c>
       <c r="O154">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>2101</v>
       </c>
       <c r="P154">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>2101</v>
       </c>
       <c r="Q154">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>2101</v>
       </c>
       <c r="R154">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>2101</v>
       </c>
       <c r="S154">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>2101</v>
       </c>
       <c r="T154">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>2101</v>
       </c>
       <c r="U154">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>2101</v>
       </c>
       <c r="V154">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>2101</v>
       </c>
       <c r="W154">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>2101</v>
       </c>
     </row>
@@ -38539,43 +38616,43 @@
         <v>20</v>
       </c>
       <c r="N155">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>20</v>
       </c>
       <c r="O155">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>20</v>
       </c>
       <c r="P155">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>20</v>
       </c>
       <c r="Q155">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>20</v>
       </c>
       <c r="R155">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>20</v>
       </c>
       <c r="S155">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>20</v>
       </c>
       <c r="T155">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>20</v>
       </c>
       <c r="U155">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>20</v>
       </c>
       <c r="V155">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>20</v>
       </c>
       <c r="W155">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>20</v>
       </c>
     </row>
@@ -38637,43 +38714,43 @@
         <v>691272.4</v>
       </c>
       <c r="N157">
-        <f t="shared" ref="N157:W160" si="36">M157</f>
+        <f t="shared" ref="N157:W160" si="35">M157</f>
         <v>691272.4</v>
       </c>
       <c r="O157">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>691272.4</v>
       </c>
       <c r="P157">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>691272.4</v>
       </c>
       <c r="Q157">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>691272.4</v>
       </c>
       <c r="R157">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>691272.4</v>
       </c>
       <c r="S157">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>691272.4</v>
       </c>
       <c r="T157">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>691272.4</v>
       </c>
       <c r="U157">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>691272.4</v>
       </c>
       <c r="V157">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>691272.4</v>
       </c>
       <c r="W157">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>691272.4</v>
       </c>
     </row>
@@ -38706,43 +38783,43 @@
         <v>18877973.460342601</v>
       </c>
       <c r="N158">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>18877973.460342601</v>
       </c>
       <c r="O158">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>18877973.460342601</v>
       </c>
       <c r="P158">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>18877973.460342601</v>
       </c>
       <c r="Q158">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>18877973.460342601</v>
       </c>
       <c r="R158">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>18877973.460342601</v>
       </c>
       <c r="S158">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>18877973.460342601</v>
       </c>
       <c r="T158">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>18877973.460342601</v>
       </c>
       <c r="U158">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>18877973.460342601</v>
       </c>
       <c r="V158">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>18877973.460342601</v>
       </c>
       <c r="W158">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>18877973.460342601</v>
       </c>
     </row>
@@ -38775,43 +38852,43 @@
         <v>755118.93841370498</v>
       </c>
       <c r="N159">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>755118.93841370498</v>
       </c>
       <c r="O159">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>755118.93841370498</v>
       </c>
       <c r="P159">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>755118.93841370498</v>
       </c>
       <c r="Q159">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>755118.93841370498</v>
       </c>
       <c r="R159">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>755118.93841370498</v>
       </c>
       <c r="S159">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>755118.93841370498</v>
       </c>
       <c r="T159">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>755118.93841370498</v>
       </c>
       <c r="U159">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>755118.93841370498</v>
       </c>
       <c r="V159">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>755118.93841370498</v>
       </c>
       <c r="W159">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>755118.93841370498</v>
       </c>
     </row>
@@ -38848,43 +38925,43 @@
         <v>17</v>
       </c>
       <c r="N160">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>17</v>
       </c>
       <c r="O160">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>17</v>
       </c>
       <c r="P160">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>17</v>
       </c>
       <c r="Q160">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>17</v>
       </c>
       <c r="R160">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>17</v>
       </c>
       <c r="S160">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>17</v>
       </c>
       <c r="T160">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>17</v>
       </c>
       <c r="U160">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>17</v>
       </c>
       <c r="V160">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>17</v>
       </c>
       <c r="W160">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>17</v>
       </c>
     </row>
@@ -38940,43 +39017,43 @@
         <v>1990</v>
       </c>
       <c r="N162">
-        <f t="shared" ref="N162:W164" si="37">M162</f>
+        <f t="shared" ref="N162:W164" si="36">M162</f>
         <v>1990</v>
       </c>
       <c r="O162">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1990</v>
       </c>
       <c r="P162">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1990</v>
       </c>
       <c r="Q162">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1990</v>
       </c>
       <c r="R162">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1990</v>
       </c>
       <c r="S162">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1990</v>
       </c>
       <c r="T162">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1990</v>
       </c>
       <c r="U162">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1990</v>
       </c>
       <c r="V162">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1990</v>
       </c>
       <c r="W162">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1990</v>
       </c>
     </row>
@@ -39009,43 +39086,43 @@
         <v>2101</v>
       </c>
       <c r="N163">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>2101</v>
       </c>
       <c r="O163">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>2101</v>
       </c>
       <c r="P163">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>2101</v>
       </c>
       <c r="Q163">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>2101</v>
       </c>
       <c r="R163">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>2101</v>
       </c>
       <c r="S163">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>2101</v>
       </c>
       <c r="T163">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>2101</v>
       </c>
       <c r="U163">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>2101</v>
       </c>
       <c r="V163">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>2101</v>
       </c>
       <c r="W163">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>2101</v>
       </c>
     </row>
@@ -39078,43 +39155,43 @@
         <v>20</v>
       </c>
       <c r="N164">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>20</v>
       </c>
       <c r="O164">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>20</v>
       </c>
       <c r="P164">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>20</v>
       </c>
       <c r="Q164">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>20</v>
       </c>
       <c r="R164">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>20</v>
       </c>
       <c r="S164">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>20</v>
       </c>
       <c r="T164">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>20</v>
       </c>
       <c r="U164">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>20</v>
       </c>
       <c r="V164">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>20</v>
       </c>
       <c r="W164">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>20</v>
       </c>
     </row>
@@ -39176,43 +39253,43 @@
         <v>691272.4</v>
       </c>
       <c r="N166">
-        <f t="shared" ref="N166:W169" si="38">M166</f>
+        <f t="shared" ref="N166:W169" si="37">M166</f>
         <v>691272.4</v>
       </c>
       <c r="O166">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>691272.4</v>
       </c>
       <c r="P166">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>691272.4</v>
       </c>
       <c r="Q166">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>691272.4</v>
       </c>
       <c r="R166">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>691272.4</v>
       </c>
       <c r="S166">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>691272.4</v>
       </c>
       <c r="T166">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>691272.4</v>
       </c>
       <c r="U166">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>691272.4</v>
       </c>
       <c r="V166">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>691272.4</v>
       </c>
       <c r="W166">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>691272.4</v>
       </c>
     </row>
@@ -39245,43 +39322,43 @@
         <v>16181120.108865101</v>
       </c>
       <c r="N167">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>16181120.108865101</v>
       </c>
       <c r="O167">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>16181120.108865101</v>
       </c>
       <c r="P167">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>16181120.108865101</v>
       </c>
       <c r="Q167">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>16181120.108865101</v>
       </c>
       <c r="R167">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>16181120.108865101</v>
       </c>
       <c r="S167">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>16181120.108865101</v>
       </c>
       <c r="T167">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>16181120.108865101</v>
       </c>
       <c r="U167">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>16181120.108865101</v>
       </c>
       <c r="V167">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>16181120.108865101</v>
       </c>
       <c r="W167">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>16181120.108865101</v>
       </c>
     </row>
@@ -39314,43 +39391,43 @@
         <v>647244.80435460398</v>
       </c>
       <c r="N168">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>647244.80435460398</v>
       </c>
       <c r="O168">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>647244.80435460398</v>
       </c>
       <c r="P168">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>647244.80435460398</v>
       </c>
       <c r="Q168">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>647244.80435460398</v>
       </c>
       <c r="R168">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>647244.80435460398</v>
       </c>
       <c r="S168">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>647244.80435460398</v>
       </c>
       <c r="T168">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>647244.80435460398</v>
       </c>
       <c r="U168">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>647244.80435460398</v>
       </c>
       <c r="V168">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>647244.80435460398</v>
       </c>
       <c r="W168">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>647244.80435460398</v>
       </c>
     </row>
@@ -39387,43 +39464,43 @@
         <v>20</v>
       </c>
       <c r="N169">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>20</v>
       </c>
       <c r="O169">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>20</v>
       </c>
       <c r="P169">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>20</v>
       </c>
       <c r="Q169">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>20</v>
       </c>
       <c r="R169">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>20</v>
       </c>
       <c r="S169">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>20</v>
       </c>
       <c r="T169">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>20</v>
       </c>
       <c r="U169">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>20</v>
       </c>
       <c r="V169">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>20</v>
       </c>
       <c r="W169">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>20</v>
       </c>
     </row>
@@ -39479,43 +39556,43 @@
         <v>1990</v>
       </c>
       <c r="N171">
-        <f t="shared" ref="N171:W173" si="39">M171</f>
+        <f t="shared" ref="N171:W173" si="38">M171</f>
         <v>1990</v>
       </c>
       <c r="O171">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1990</v>
       </c>
       <c r="P171">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1990</v>
       </c>
       <c r="Q171">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1990</v>
       </c>
       <c r="R171">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1990</v>
       </c>
       <c r="S171">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1990</v>
       </c>
       <c r="T171">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1990</v>
       </c>
       <c r="U171">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1990</v>
       </c>
       <c r="V171">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1990</v>
       </c>
       <c r="W171">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1990</v>
       </c>
     </row>
@@ -39548,43 +39625,43 @@
         <v>2101</v>
       </c>
       <c r="N172">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>2101</v>
       </c>
       <c r="O172">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>2101</v>
       </c>
       <c r="P172">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>2101</v>
       </c>
       <c r="Q172">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>2101</v>
       </c>
       <c r="R172">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>2101</v>
       </c>
       <c r="S172">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>2101</v>
       </c>
       <c r="T172">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>2101</v>
       </c>
       <c r="U172">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>2101</v>
       </c>
       <c r="V172">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>2101</v>
       </c>
       <c r="W172">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>2101</v>
       </c>
     </row>
@@ -39617,43 +39694,43 @@
         <v>20</v>
       </c>
       <c r="N173">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>20</v>
       </c>
       <c r="O173">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>20</v>
       </c>
       <c r="P173">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>20</v>
       </c>
       <c r="Q173">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>20</v>
       </c>
       <c r="R173">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>20</v>
       </c>
       <c r="S173">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>20</v>
       </c>
       <c r="T173">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>20</v>
       </c>
       <c r="U173">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>20</v>
       </c>
       <c r="V173">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>20</v>
       </c>
       <c r="W173">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>20</v>
       </c>
     </row>
@@ -39715,43 +39792,43 @@
         <v>691272.4</v>
       </c>
       <c r="N175">
-        <f t="shared" ref="N175:W178" si="40">M175</f>
+        <f t="shared" ref="N175:W178" si="39">M175</f>
         <v>691272.4</v>
       </c>
       <c r="O175">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>691272.4</v>
       </c>
       <c r="P175">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>691272.4</v>
       </c>
       <c r="Q175">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>691272.4</v>
       </c>
       <c r="R175">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>691272.4</v>
       </c>
       <c r="S175">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>691272.4</v>
       </c>
       <c r="T175">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>691272.4</v>
       </c>
       <c r="U175">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>691272.4</v>
       </c>
       <c r="V175">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>691272.4</v>
       </c>
       <c r="W175">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>691272.4</v>
       </c>
     </row>
@@ -39784,43 +39861,43 @@
         <v>16990176.114308301</v>
       </c>
       <c r="N176">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>16990176.114308301</v>
       </c>
       <c r="O176">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>16990176.114308301</v>
       </c>
       <c r="P176">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>16990176.114308301</v>
       </c>
       <c r="Q176">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>16990176.114308301</v>
       </c>
       <c r="R176">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>16990176.114308301</v>
       </c>
       <c r="S176">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>16990176.114308301</v>
       </c>
       <c r="T176">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>16990176.114308301</v>
       </c>
       <c r="U176">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>16990176.114308301</v>
       </c>
       <c r="V176">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>16990176.114308301</v>
       </c>
       <c r="W176">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>16990176.114308301</v>
       </c>
     </row>
@@ -39853,43 +39930,43 @@
         <v>679607.04457233404</v>
       </c>
       <c r="N177">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>679607.04457233404</v>
       </c>
       <c r="O177">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>679607.04457233404</v>
       </c>
       <c r="P177">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>679607.04457233404</v>
       </c>
       <c r="Q177">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>679607.04457233404</v>
       </c>
       <c r="R177">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>679607.04457233404</v>
       </c>
       <c r="S177">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>679607.04457233404</v>
       </c>
       <c r="T177">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>679607.04457233404</v>
       </c>
       <c r="U177">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>679607.04457233404</v>
       </c>
       <c r="V177">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>679607.04457233404</v>
       </c>
       <c r="W177">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>679607.04457233404</v>
       </c>
     </row>
@@ -39926,43 +40003,43 @@
         <v>20</v>
       </c>
       <c r="N178">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>20</v>
       </c>
       <c r="O178">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>20</v>
       </c>
       <c r="P178">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>20</v>
       </c>
       <c r="Q178">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>20</v>
       </c>
       <c r="R178">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>20</v>
       </c>
       <c r="S178">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>20</v>
       </c>
       <c r="T178">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>20</v>
       </c>
       <c r="U178">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>20</v>
       </c>
       <c r="V178">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>20</v>
       </c>
       <c r="W178">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>20</v>
       </c>
     </row>
